--- a/data_process/xlsx/jongno_D3.xlsx
+++ b/data_process/xlsx/jongno_D3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>contact</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,7 +487,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -492,6 +497,11 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1722877110/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143273203</t>
         </is>
       </c>
     </row>
@@ -512,7 +522,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -522,6 +532,11 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/20909851/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143281321</t>
         </is>
       </c>
     </row>
@@ -554,16 +569,21 @@
           <t>02-762-0243</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/33166947/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143288392</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>낙원게임랜드</t>
+          <t>세븐틴코인노래연습장 종로3가점</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,23 +592,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로5길 38 한성빌딩</t>
+          <t>서울 종로구 돈화문로11길 38 경한빌딩 2층</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>02-5229-7040</t>
+          <t>02-747-2202</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1353484853/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143295241</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>세븐틴코인노래연습장 종로3가점</t>
+          <t>G르Go코인노래연습장</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -598,50 +623,60 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11길 38 경한빌딩 2층</t>
+          <t>서울 종로구 대명길 37 3층 4층</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>02-747-2202</t>
+          <t>0507-1353-6211</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1021302158/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143302749</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>세븐틴코인노래연습장 을지로3가점</t>
+          <t>낙원게임랜드</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 110-1 2층</t>
+          <t>서울 종로구 돈화문로5길 38 한성빌딩</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02-6248-4455</t>
+          <t>02-5229-7040</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/599463831/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143308274</t>
         </is>
       </c>
     </row>
@@ -662,7 +697,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -672,13 +707,18 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>02-733-3367</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1710676941/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143313478</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>G르Go코인노래연습장</t>
+          <t>고래고래코인노래연습장</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -692,16 +732,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>서울 종로구 대명길 37 3층 4층</t>
+          <t>서울 종로구 우정국로2길 42 덕산빌딩 지하1층</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0507-1353-6211</t>
+          <t>0507-1415-7344</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1079072185/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143319040</t>
         </is>
       </c>
     </row>
@@ -718,11 +763,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -732,18 +777,23 @@
       <c r="F10" t="inlineStr">
         <is>
           <t>02-3674-0003</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1526812708/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143323944</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>고래고래코인노래연습장</t>
+          <t>짱오락실 종로점</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -752,58 +802,68 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>서울 종로구 우정국로2길 42 덕산빌딩 지하1층</t>
+          <t>서울 종로구 종로14길 5</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0507-1415-7344</t>
+          <t>02-0200-0000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1745549429/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143329171</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>짱오락실 종로점</t>
+          <t>세븐틴코인노래연습장 을지로3가점</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>서울 종로구 종로14길 5</t>
+          <t>서울 중구 을지로 110-1 2층</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>02-0200-0000</t>
+          <t>02-6248-4455</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1498289007/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143334359</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>두타게임랜드</t>
+          <t>에코코인노래연습장</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -812,28 +872,33 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>서울 중구 을지로43길 30 미진빌딩</t>
+          <t>서울 종로구 대명길 40 상지빌딩 지하1층</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1407-6675</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1279861834/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143341177</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>에코코인노래연습장</t>
+          <t>성인</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -842,23 +907,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>서울 종로구 대명길 40 상지빌딩 지하1층</t>
+          <t>서울 중구 을지로6가</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0507-1407-6675</t>
+          <t>02-6388-2926</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/18062557/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143347995</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>성인</t>
+          <t>인형뽑기</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -876,19 +946,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>서울 중구 을지로6가</t>
+          <t>서울 종로구 창신길 12</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>02-6388-2926</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1581490776/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143356827</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>게임아이존</t>
+          <t>두타게임랜드</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -902,28 +977,33 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 247 굿모닝시티쇼핑몰</t>
+          <t>서울 중구 을지로43길 30 미진빌딩</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1558580969/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143367721</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>인형뽑기</t>
+          <t>뮤직이너스</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -932,16 +1012,21 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>서울 종로구 창신길 12</t>
+          <t>서울 중구 을지로43길 38 지하 1층 뮤직이너스</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>010-7506-0185</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1938287664/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143378536</t>
         </is>
       </c>
     </row>
@@ -974,16 +1059,21 @@
           <t>02-318-0497</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1980738300/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143385358</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>뮤직이너스</t>
+          <t>게임아이존</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -996,12 +1086,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>서울 중구 을지로43길 38 지하 1층 뮤직이너스</t>
+          <t>서울 중구 장충단로 247 굿모닝시티쇼핑몰</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>010-7506-0185</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/37843315/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143390974</t>
         </is>
       </c>
     </row>
@@ -1034,46 +1129,56 @@
           <t>정보 없음</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1922874267/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143398329</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>옥인오락실</t>
+          <t>리코스타 코인노래방</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>서울 종로구 옥인길 28 1층</t>
+          <t>서울 중구 퇴계로 222</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0507-1402-4788</t>
+          <t>0507-1316-7201</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1800072987/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143407268</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>리코스타 코인노래방</t>
+          <t>옥인오락실</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1086,12 +1191,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>서울 중구 퇴계로 222</t>
+          <t>서울 종로구 옥인길 28 1층</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0507-1316-7201</t>
+          <t>0507-1402-4788</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/37448396/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143412930</t>
         </is>
       </c>
     </row>
@@ -1108,11 +1218,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1122,6 +1232,11 @@
       <c r="F23" t="inlineStr">
         <is>
           <t>010-5273-1056</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1785501489/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143418161</t>
         </is>
       </c>
     </row>
@@ -1154,6 +1269,11 @@
           <t>0507-1437-1155</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1300483792/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143424930</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1172,7 +1292,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1182,6 +1302,11 @@
       <c r="F25" t="inlineStr">
         <is>
           <t>0507-1433-5788</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1269075560/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143431775</t>
         </is>
       </c>
     </row>
@@ -1214,6 +1339,11 @@
           <t>02-2231-1440</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/37017570/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143438549</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1244,6 +1374,11 @@
           <t>02-2273-0708</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/36793216/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143447384</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1274,6 +1409,11 @@
           <t>0507-1447-1212</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/32613881/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143454144</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1304,6 +1444,11 @@
           <t>02-2272-1244</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/18064222/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143460950</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1332,6 +1477,11 @@
       <c r="F30" t="inlineStr">
         <is>
           <t>0506-790-8606</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1336098861/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143469754</t>
         </is>
       </c>
     </row>

--- a/data_process/xlsx/jongno_D3.xlsx
+++ b/data_process/xlsx/jongno_D3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>url</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>create_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -483,11 +488,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -501,14 +506,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1722877110/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143273203</t>
+          <t>https://pcmap.place.naver.com/place/1722877110/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9897117&amp;y=37.5734378&amp;timestamp=202309071832</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>우리게임장</t>
+          <t>세미소사야구장</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -518,32 +528,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>786</v>
+        <v>23</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>서울 종로구 대명길 24</t>
+          <t>서울 종로구 대학로 144 중원빌딩</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-762-0243</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/20909851/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143281321</t>
+          <t>https://pcmap.place.naver.com/place/33166947/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00238600000044&amp;y=37.58392849999992&amp;timestamp=202309071832</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>세미소사야구장</t>
+          <t>우리게임장</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,33 +572,38 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 144 중원빌딩</t>
+          <t>서울 종로구 대명길 24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>02-762-0243</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/33166947/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143288392</t>
+          <t>https://pcmap.place.naver.com/place/20909851/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00026060000016&amp;y=37.583408499999734&amp;timestamp=202309071832</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>세븐틴코인노래연습장 종로3가점</t>
+          <t>낙원게임랜드</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,28 +612,33 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11길 38 경한빌딩 2층</t>
+          <t>서울 종로구 돈화문로5길 38 한성빌딩</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>02-747-2202</t>
+          <t>02-5229-7040</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1353484853/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143295241</t>
+          <t>https://pcmap.place.naver.com/place/599463831/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98980267308646&amp;y=37.57069587415212&amp;timestamp=202309071832</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G르Go코인노래연습장</t>
+          <t>세븐틴코인노래연습장 종로3가점</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -623,67 +648,77 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>서울 종로구 대명길 37 3층 4층</t>
+          <t>서울 종로구 돈화문로11길 38 경한빌딩 2층</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0507-1353-6211</t>
+          <t>02-747-2202</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1021302158/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143302749</t>
+          <t>https://pcmap.place.naver.com/place/1353484853/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9893452&amp;y=37.572674&amp;timestamp=202309071833</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>낙원게임랜드</t>
+          <t>드림 코인 노래연습장</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>148</v>
+        <v>313</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로5길 38 한성빌딩</t>
+          <t>서울 종로구 종로12길 14 3층</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02-5229-7040</t>
+          <t>02-733-3367</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/599463831/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143308274</t>
+          <t>https://pcmap.place.naver.com/place/1710676941/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9855858&amp;y=37.569455&amp;timestamp=202309071833</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>드림 코인 노래연습장</t>
+          <t>고래고래코인노래연습장</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -693,32 +728,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>313</v>
+        <v>165</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>서울 종로구 종로12길 14 3층</t>
+          <t>서울 종로구 우정국로2길 42 덕산빌딩 지하1층</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>02-733-3367</t>
+          <t>0507-1415-7344</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1710676941/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143313478</t>
+          <t>https://pcmap.place.naver.com/place/1079072185/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9853874&amp;y=37.5694417&amp;timestamp=202309071833</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>고래고래코인노래연습장</t>
+          <t>G르Go코인노래연습장</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -728,72 +768,82 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>313</v>
+        <v>150</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>서울 종로구 우정국로2길 42 덕산빌딩 지하1층</t>
+          <t>서울 종로구 대명길 37 3층 4층</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0507-1415-7344</t>
+          <t>0507-1353-6211</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1079072185/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143319040</t>
+          <t>https://pcmap.place.naver.com/place/1021302158/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9995971&amp;y=37.5829145&amp;timestamp=202309071833</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>악쓰는하마코인노래연습장</t>
+          <t>짱오락실 종로점</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>서울 종로구 대명길 9 _3층</t>
+          <t>서울 종로구 종로14길 5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>02-3674-0003</t>
+          <t>02-0200-0000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1526812708/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143323944</t>
+          <t>https://pcmap.place.naver.com/place/1745549429/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9870544&amp;y=37.5698297&amp;timestamp=202309071833</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>짱오락실 종로점</t>
+          <t>악쓰는하마코인노래연습장</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -802,33 +852,38 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>서울 종로구 종로14길 5</t>
+          <t>서울 종로구 대명길 9 _3층</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>02-0200-0000</t>
+          <t>02-3674-0003</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1745549429/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143329171</t>
+          <t>https://pcmap.place.naver.com/place/1526812708/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0009767&amp;y=37.5833797&amp;timestamp=202309071833</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>세븐틴코인노래연습장 을지로3가점</t>
+          <t>성인</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -837,28 +892,33 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 110-1 2층</t>
+          <t>서울 중구 을지로6가</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>02-6248-4455</t>
+          <t>02-6388-2926</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1498289007/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143334359</t>
+          <t>https://pcmap.place.naver.com/place/18062557/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.006938&amp;y=37.567717&amp;timestamp=202309071833</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>에코코인노래연습장</t>
+          <t>세븐틴코인노래연습장 을지로3가점</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -872,28 +932,33 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>서울 종로구 대명길 40 상지빌딩 지하1층</t>
+          <t>서울 중구 을지로 110-1 2층</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0507-1407-6675</t>
+          <t>02-6248-4455</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1279861834/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143341177</t>
+          <t>https://pcmap.place.naver.com/place/1498289007/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9901612&amp;y=37.5660189&amp;timestamp=202309071833</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>성인</t>
+          <t>인형뽑기</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -911,29 +976,34 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>서울 중구 을지로6가</t>
+          <t>서울 종로구 창신길 12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>02-6388-2926</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/18062557/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143347995</t>
+          <t>https://pcmap.place.naver.com/place/1581490776/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.01070291639105&amp;y=37.572204335882304&amp;timestamp=202309071833</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>인형뽑기</t>
+          <t>에코코인노래연습장</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -942,21 +1012,26 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>서울 종로구 창신길 12</t>
+          <t>서울 종로구 대명길 40 상지빌딩 지하1층</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1407-6675</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1581490776/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143356827</t>
+          <t>https://pcmap.place.naver.com/place/1279861834/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99946989857499&amp;y=37.5830508448284&amp;timestamp=202309071834</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
@@ -991,19 +1066,24 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1558580969/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143367721</t>
+          <t>https://pcmap.place.naver.com/place/1558580969/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.007567444612&amp;y=37.5675010184348&amp;timestamp=202309071834</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>뮤직이너스</t>
+          <t>게임아이존</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1012,21 +1092,26 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>서울 중구 을지로43길 38 지하 1층 뮤직이너스</t>
+          <t>서울 중구 장충단로 247 굿모닝시티쇼핑몰</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>010-7506-0185</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1938287664/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143378536</t>
+          <t>https://pcmap.place.naver.com/place/37843315/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0072468&amp;y=37.5669071&amp;timestamp=202309071834</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1132,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1061,42 +1146,52 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1980738300/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143385358</t>
+          <t>https://pcmap.place.naver.com/place/1980738300/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98342780000002&amp;y=37.56347439999998&amp;timestamp=202309071834</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>게임아이존</t>
+          <t>뮤직이너스</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 247 굿모닝시티쇼핑몰</t>
+          <t>서울 중구 을지로43길 38 지하 1층 뮤직이너스</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>010-7506-0185</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37843315/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143390974</t>
+          <t>https://pcmap.place.naver.com/place/1938287664/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0077855&amp;y=37.5677105&amp;timestamp=202309071834</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
@@ -1131,54 +1226,64 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1922874267/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143398329</t>
+          <t>https://pcmap.place.naver.com/place/1922874267/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.997475676079&amp;y=37.5838096302172&amp;timestamp=202309071834</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>리코스타 코인노래방</t>
+          <t>옥인오락실</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>서울 중구 퇴계로 222</t>
+          <t>서울 종로구 옥인길 28 1층</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0507-1316-7201</t>
+          <t>0507-1402-4788</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1800072987/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143407268</t>
+          <t>https://pcmap.place.naver.com/place/37448396/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9672317&amp;y=37.58095&amp;timestamp=202309071834</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>옥인오락실</t>
+          <t>리코스타 코인노래방</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1191,17 +1296,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>서울 종로구 옥인길 28 1층</t>
+          <t>서울 중구 퇴계로 222</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0507-1402-4788</t>
+          <t>0507-1316-7201</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37448396/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143412930</t>
+          <t>https://pcmap.place.naver.com/place/1800072987/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99639100017801&amp;y=37.5615210017096&amp;timestamp=202309071834</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1346,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1785501489/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143418161</t>
+          <t>https://pcmap.place.naver.com/place/1785501489/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9961751&amp;y=37.5612966&amp;timestamp=202309071834</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1386,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1300483792/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143424930</t>
+          <t>https://pcmap.place.naver.com/place/1300483792/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99851999999998&amp;y=37.56097110000001&amp;timestamp=202309071835</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1412,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1306,7 +1426,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1269075560/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143431775</t>
+          <t>https://pcmap.place.naver.com/place/1269075560/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9899997&amp;y=37.5730843&amp;timestamp=202309071835</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1466,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37017570/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143438549</t>
+          <t>https://pcmap.place.naver.com/place/37017570/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0109481&amp;y=37.5691737&amp;timestamp=202309071835</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1506,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/36793216/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143447384</t>
+          <t>https://pcmap.place.naver.com/place/36793216/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9954215&amp;y=37.567527&amp;timestamp=202309071835</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1546,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/32613881/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143454144</t>
+          <t>https://pcmap.place.naver.com/place/32613881/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9954149&amp;y=37.5675349&amp;timestamp=202309071835</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1586,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/18064222/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143460950</t>
+          <t>https://pcmap.place.naver.com/place/18064222/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9955084&amp;y=37.5667617&amp;timestamp=202309071835</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1626,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1336098861/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143469754</t>
+          <t>https://pcmap.place.naver.com/place/1336098861/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0002301&amp;y=37.5613846&amp;timestamp=202309071835</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
     </row>
